--- a/configTools/Luban/ConfigRoot/Datas/event.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/event.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="event_0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="anecdote" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="event_type" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="id定义" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="event_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="anecdote" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="event_type" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="id定义" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1198,8 +1198,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="skill|技能"/>
       <sheetName val="skill_binding|技能羁绊"/>
@@ -8057,8 +8057,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="skill_effect|技能效果"/>
       <sheetName val="技能元素"/>
@@ -10889,7 +10889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -15720,23 +15720,23 @@
     <cfRule type="duplicateValues" priority="73" dxfId="0"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation sqref="A1:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
+    <dataValidation sqref="A1:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
-    <dataValidation sqref="J5:J102 J119:J142" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="J5:J102 J119:J142" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>'event_type|事件类型'!$C$5:$C$108</formula1>
     </dataValidation>
-    <dataValidation sqref="E5:F102 E128:F142" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E5:F102 E128:F142" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>'event_type|事件类型'!$Q$5:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16615,12 +16615,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -17186,7 +17186,7 @@
     <cfRule type="duplicateValues" priority="30" dxfId="0"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/event.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/event.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="event_0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="anecdote" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="event_type" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="id定义" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="event_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="anecdote" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="event_type" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="id定义" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1198,8 +1198,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="skill|技能"/>
       <sheetName val="skill_binding|技能羁绊"/>
@@ -8057,8 +8057,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="skill_effect|技能效果"/>
       <sheetName val="技能元素"/>
@@ -15720,13 +15720,13 @@
     <cfRule type="duplicateValues" priority="73" dxfId="0"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation sqref="A1:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
+    <dataValidation sqref="A1:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
-    <dataValidation sqref="J5:J102 J119:J142" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="J5:J102 J119:J142" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'event_type|事件类型'!$C$5:$C$108</formula1>
     </dataValidation>
-    <dataValidation sqref="E5:F102 E128:F142" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E5:F102 E128:F142" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'event_type|事件类型'!$Q$5:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/configTools/Luban/ConfigRoot/Datas/event.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/event.xlsx
@@ -10889,7 +10889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -15731,12 +15731,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16615,12 +16615,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -17186,7 +17186,7 @@
     <cfRule type="duplicateValues" priority="30" dxfId="0"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
